--- a/Graph.xlsx
+++ b/Graph.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="k=n" sheetId="1" r:id="rId1"/>
-    <sheet name="k=1" sheetId="2" r:id="rId2"/>
+    <sheet name="k=1" sheetId="4" r:id="rId2"/>
+    <sheet name="k=1(old)" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>n</t>
   </si>
@@ -28,12 +29,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,13 +43,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -62,17 +59,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,14 +112,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -101,23 +119,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,32 +136,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,6 +158,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -176,16 +173,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,12 +193,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -218,7 +208,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,7 +232,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,13 +352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,127 +364,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,15 +405,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -429,21 +416,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,19 +437,19 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -491,159 +463,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,17 +771,35 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'k=n'!$A$9:$A$11</c:f>
+              <c:f>'k=n'!$A$10:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
@@ -796,18 +807,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'k=n'!$B$9:$B$11</c:f>
+              <c:f>'k=n'!$B$10:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>298.5</c:v>
+                  <c:v>30.646</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3413.5</c:v>
+                  <c:v>125.146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17653.5</c:v>
+                  <c:v>408.646</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>881.146</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1826.146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4661.146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9386.146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14111.146</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18836.146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -857,48 +886,54 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'k=n'!$A$2:$A$6</c:f>
+              <c:f>'k=n'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>20000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'k=n'!$B$2:$B$6</c:f>
+              <c:f>'k=n'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>89</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>723</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1488</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3989</c:v>
+                  <c:v>883</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8939</c:v>
+                  <c:v>1729</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,17 +983,35 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'k=n'!$A$14:$A$16</c:f>
+              <c:f>'k=n'!$A$21:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
@@ -966,18 +1019,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'k=n'!$B$14:$B$16</c:f>
+              <c:f>'k=n'!$B$21:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>403</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3111</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25099</c:v>
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4572</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10704</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22812</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1335,17 +1406,35 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'k=1'!$A$9:$A$11</c:f>
+              <c:f>'k=1'!$A$10:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1353,18 +1442,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'k=1'!$B$9:$B$11</c:f>
+              <c:f>'k=1'!$B$10:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1954761.23</c:v>
+                  <c:v>5716243.1431</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2501079.38</c:v>
+                  <c:v>5709227.0862</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6745733.78</c:v>
+                  <c:v>5658465.7155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5474819.431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4736111.862</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-451330.845</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-19001468.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-49932106.535</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-93243244.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1414,48 +1521,54 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'k=1'!$A$2:$A$6</c:f>
+              <c:f>'k=1'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>20000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'k=1'!$B$2:$B$6</c:f>
+              <c:f>'k=1'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>347</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20588</c:v>
+                  <c:v>953</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79969</c:v>
+                  <c:v>6099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>493280</c:v>
+                  <c:v>37952</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4225522</c:v>
+                  <c:v>92178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>577138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1505,7 +1618,428 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'k=1'!$A$14:$A$16</c:f>
+              <c:f>'k=1'!$A$21:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k=1'!$B$21:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>636099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3024813</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6941827</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14906235</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1088"/>
+        <c:axId val="1089"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1089"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1089"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>t, us</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.08541"/>
+          <c:y val="0.02934"/>
+          <c:w val="0.88814"/>
+          <c:h val="0.87063"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Assumed time, us"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Assumed time, us</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k=1(old)'!$A$9:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1523,7 +2057,177 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'k=1'!$B$14:$B$16</c:f>
+              <c:f>'k=1(old)'!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1954761.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2501079.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6745733.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Average time, us"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average time, us</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k=1(old)'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k=1(old)'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20588</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>493280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4225522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Real time, us"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real time, us</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k=1(old)'!$A$14:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k=1(old)'!$B$14:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1841,6 +2545,17 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="acrossLinear" id="2">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2358,6 +3073,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2878,13 +4109,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>675005</xdr:colOff>
+      <xdr:colOff>684530</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>36195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>208280</xdr:colOff>
+      <xdr:colOff>217805</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>94615</xdr:rowOff>
     </xdr:to>
@@ -2894,8 +4125,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2100580" y="36195"/>
-        <a:ext cx="14141450" cy="7297420"/>
+        <a:off x="2214880" y="36195"/>
+        <a:ext cx="14141450" cy="6935470"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2909,6 +4140,41 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>684530</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>217805</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>94615</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2472055" y="36195"/>
+        <a:ext cx="14141450" cy="6935470"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2929,8 +4195,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2183765" y="208915"/>
-        <a:ext cx="14465300" cy="7658100"/>
+        <a:off x="2212340" y="199390"/>
+        <a:ext cx="14465300" cy="7277100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3153,15 +4419,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9.70833333333333"/>
+    <col min="2" max="2" width="10.375"/>
     <col min="4" max="4" width="11.7083333333333"/>
   </cols>
   <sheetData>
@@ -3178,90 +4445,200 @@
         <v>1000</v>
       </c>
       <c r="B2">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="B3">
-        <v>723</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="B4">
-        <v>1488</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="B5">
-        <v>3989</v>
+        <v>883</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="B6">
-        <v>8939</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>5000</v>
-      </c>
-      <c r="B9">
-        <f>0.089*A9-146.5</f>
-        <v>298.5</v>
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>50000</v>
+      </c>
+      <c r="B7">
+        <v>4703</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="B10">
-        <f t="shared" ref="B10:B11" si="0">0.089*A10-146.5</f>
-        <v>3413.5</v>
+        <f>A10*0.0945-63.854</f>
+        <v>30.646</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>200000</v>
+        <v>2000</v>
       </c>
       <c r="B11">
+        <f t="shared" ref="B11:B18" si="0">A11*0.0945-63.854</f>
+        <v>125.146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>5000</v>
+      </c>
+      <c r="B12">
         <f t="shared" si="0"/>
-        <v>17653.5</v>
+        <v>408.646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>10000</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>881.146</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="B14">
-        <v>403</v>
+        <f t="shared" si="0"/>
+        <v>1826.146</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="B15">
-        <v>3111</v>
+        <f t="shared" si="0"/>
+        <v>4661.146</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
+        <v>100000</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>9386.146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>150000</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>14111.146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>200000</v>
       </c>
-      <c r="B16">
-        <v>25099</v>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>18836.146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>1000</v>
+      </c>
+      <c r="B21">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>5000</v>
+      </c>
+      <c r="B23">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>10000</v>
+      </c>
+      <c r="B24">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>20000</v>
+      </c>
+      <c r="B25">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>50000</v>
+      </c>
+      <c r="B26">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>100000</v>
+      </c>
+      <c r="B27">
+        <v>10704</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>150000</v>
+      </c>
+      <c r="B28">
+        <v>22812</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>200000</v>
+      </c>
+      <c r="B29">
+        <v>31876</v>
       </c>
     </row>
   </sheetData>
@@ -3275,15 +4652,249 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="9.70833333333333"/>
+    <col min="2" max="2" width="13.75"/>
+    <col min="4" max="4" width="11.7083333333333"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>5000</v>
+      </c>
+      <c r="B4">
+        <v>6099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>10000</v>
+      </c>
+      <c r="B5">
+        <v>37952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>20000</v>
+      </c>
+      <c r="B6">
+        <v>92178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>50000</v>
+      </c>
+      <c r="B7">
+        <v>577138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>1000</v>
+      </c>
+      <c r="B10">
+        <f>A10^2*-0.0024761+A10*0.4122431+5718307</f>
+        <v>5716243.1431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>2000</v>
+      </c>
+      <c r="B11">
+        <f>A11^2*-0.0024761+A11*0.4122431+5718307</f>
+        <v>5709227.0862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>5000</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B11:B18" si="0">A12^2*-0.0024761+A12*0.4122431+5718307</f>
+        <v>5658465.7155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>10000</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>5474819.431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>20000</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>4736111.862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>50000</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>-451330.845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>100000</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>-19001468.69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>150000</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>-49932106.535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>200000</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>-93243244.38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>1000</v>
+      </c>
+      <c r="B21">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>5000</v>
+      </c>
+      <c r="B23">
+        <v>5696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>10000</v>
+      </c>
+      <c r="B24">
+        <v>23160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>20000</v>
+      </c>
+      <c r="B25">
+        <v>90889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>50000</v>
+      </c>
+      <c r="B26">
+        <v>636099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>100000</v>
+      </c>
+      <c r="B27">
+        <v>3024813</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>150000</v>
+      </c>
+      <c r="B28">
+        <v>6941827</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>200000</v>
+      </c>
+      <c r="B29">
+        <v>14906235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.700787401574803" right="0.700787401574803" top="0.751968503937008" bottom="0.751968503937008" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" useFirstPageNumber="1" horizontalDpi="600" verticalDpi="600"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9.70833333333333"/>
+    <col min="2" max="2" width="9.375"/>
     <col min="3" max="3" width="9.70833333333333"/>
     <col min="4" max="4" width="11.7083333333333"/>
   </cols>
@@ -3383,7 +4994,7 @@
       <c r="A16">
         <v>200000</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>16010489</v>
       </c>
     </row>
